--- a/output/aggregate_tables/Analysis Group Statistics/Area 21_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 21_summary.xlsx
@@ -1321,17 +1321,39 @@
       <c r="M4" s="4" t="n">
         <v>36.42384105960264</v>
       </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>9.523809523809524</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>54.76190476190477</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>64.28571428571429</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>35.71428571428572</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1450,34 +1472,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.2149735505687284</v>
+        <v>0.2148697022354285</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.014533765543599</v>
+        <v>1.014797185030779</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2227949605542723</v>
+        <v>0.2232178711953313</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.229507316112328</v>
+        <v>1.229666887266207</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2227949605542723</v>
+        <v>0.2232178711953313</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.80225942096207</v>
+        <v>14.78917725470217</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.85692867411942</v>
+        <v>69.8470528457707</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>84.65918809508149</v>
+        <v>84.63623010047289</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
     </row>
   </sheetData>
@@ -1595,34 +1617,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.2149735505687284</v>
+        <v>0.2148697022354285</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.014533765543599</v>
+        <v>1.014797185030779</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2227949605542723</v>
+        <v>0.2232178711953313</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.229507316112328</v>
+        <v>1.229666887266207</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2227949605542723</v>
+        <v>0.2232178711953313</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.80225942096207</v>
+        <v>14.78917725470217</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.85692867411942</v>
+        <v>69.8470528457707</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>84.65918809508149</v>
+        <v>84.63623010047289</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
     </row>
     <row r="5">
@@ -1632,34 +1654,34 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.2149735505687284</v>
+        <v>0.2148697022354285</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.014533765543599</v>
+        <v>1.014797185030779</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.2227949605542723</v>
+        <v>0.2232178711953313</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.229507316112328</v>
+        <v>1.229666887266207</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.2227949605542723</v>
+        <v>0.2232178711953313</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.80225942096207</v>
+        <v>14.78917725470217</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.85692867411942</v>
+        <v>69.8470528457707</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>84.65918809508149</v>
+        <v>84.63623010047289</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
     </row>
   </sheetData>
@@ -1779,19 +1801,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.80225942096207</v>
+        <v>14.78917725470217</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>69.85692867411942</v>
+        <v>69.8470528457707</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>84.65918809508149</v>
+        <v>84.63623010047289</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>4.178653654593925</v>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 21_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 21_summary.xlsx
@@ -1816,19 +1816,19 @@
         <v>15.36376989952713</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.178653654593925</v>
+        <v>4.173663381228784</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>85.55454704186324</v>
+        <v>85.52045219198894</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.26679930354283</v>
+        <v>10.30588442678228</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>89.73320069645717</v>
+        <v>89.69411557321772</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.26679930354283</v>
+        <v>10.30588442678228</v>
       </c>
     </row>
   </sheetData>
